--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gdf2-Acvr2a.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gdf2-Acvr2a.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.15919737918668</v>
+        <v>1.240179</v>
       </c>
       <c r="H2">
-        <v>1.15919737918668</v>
+        <v>3.720537</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.49917785717623</v>
+        <v>7.940402333333334</v>
       </c>
       <c r="N2">
-        <v>7.49917785717623</v>
+        <v>23.821207</v>
       </c>
       <c r="O2">
-        <v>0.1845651337866789</v>
+        <v>0.1931648990487216</v>
       </c>
       <c r="P2">
-        <v>0.1845651337866789</v>
+        <v>0.1931648990487216</v>
       </c>
       <c r="Q2">
-        <v>8.693027318093469</v>
+        <v>9.847520225350999</v>
       </c>
       <c r="R2">
-        <v>8.693027318093469</v>
+        <v>88.627682028159</v>
       </c>
       <c r="S2">
-        <v>0.1845651337866789</v>
+        <v>0.1931648990487216</v>
       </c>
       <c r="T2">
-        <v>0.1845651337866789</v>
+        <v>0.1931648990487216</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.15919737918668</v>
+        <v>1.240179</v>
       </c>
       <c r="H3">
-        <v>1.15919737918668</v>
+        <v>3.720537</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.9442107038137</v>
+        <v>26.95384733333333</v>
       </c>
       <c r="N3">
-        <v>26.9442107038137</v>
+        <v>80.861542</v>
       </c>
       <c r="O3">
-        <v>0.6631342725878993</v>
+        <v>0.6557019380820612</v>
       </c>
       <c r="P3">
-        <v>0.6631342725878993</v>
+        <v>0.6557019380820612</v>
       </c>
       <c r="Q3">
-        <v>31.23365843211453</v>
+        <v>33.42759543200599</v>
       </c>
       <c r="R3">
-        <v>31.23365843211453</v>
+        <v>300.848358888054</v>
       </c>
       <c r="S3">
-        <v>0.6631342725878993</v>
+        <v>0.6557019380820612</v>
       </c>
       <c r="T3">
-        <v>0.6631342725878993</v>
+        <v>0.6557019380820612</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.15919737918668</v>
+        <v>1.240179</v>
       </c>
       <c r="H4">
-        <v>1.15919737918668</v>
+        <v>3.720537</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.18821776311574</v>
+        <v>6.212609666666666</v>
       </c>
       <c r="N4">
-        <v>6.18821776311574</v>
+        <v>18.637829</v>
       </c>
       <c r="O4">
-        <v>0.1523005936254219</v>
+        <v>0.1511331628692172</v>
       </c>
       <c r="P4">
-        <v>0.1523005936254219</v>
+        <v>0.1511331628692172</v>
       </c>
       <c r="Q4">
-        <v>7.173365812840226</v>
+        <v>7.704748043796999</v>
       </c>
       <c r="R4">
-        <v>7.173365812840226</v>
+        <v>69.342732394173</v>
       </c>
       <c r="S4">
-        <v>0.1523005936254219</v>
+        <v>0.1511331628692172</v>
       </c>
       <c r="T4">
-        <v>0.1523005936254219</v>
+        <v>0.1511331628692172</v>
       </c>
     </row>
   </sheetData>
